--- a/north-virginia-2024.xlsx
+++ b/north-virginia-2024.xlsx
@@ -13,7 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -594,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +797,7 @@
         <v>54037</v>
       </c>
       <c r="C18">
-        <v>53.5</v>
+        <v>-53.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -941,7 +940,7 @@
         <v>54065</v>
       </c>
       <c r="C31">
-        <v>-54.8</v>
+        <v>-64.099999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,7 +1149,7 @@
         <v>54105</v>
       </c>
       <c r="C50">
-        <v>-67.3</v>
+        <v>-57.3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +1314,7 @@
         <v>24009</v>
       </c>
       <c r="C65">
-        <v>-56.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">

--- a/north-virginia-2024.xlsx
+++ b/north-virginia-2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>54021</v>
       </c>
       <c r="C11">
-        <v>56.4</v>
+        <v>-57.9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>54023</v>
       </c>
       <c r="C12">
-        <v>-76.400000000000006</v>
+        <v>-68.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>54041</v>
       </c>
       <c r="C20">
-        <v>-64.400000000000006</v>
+        <v>-57.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>54049</v>
       </c>
       <c r="C24">
-        <v>58.8</v>
+        <v>-54.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>54067</v>
       </c>
       <c r="C32">
-        <v>-56.5</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>54075</v>
       </c>
       <c r="C35">
-        <v>-53.5</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>54093</v>
       </c>
       <c r="C44">
-        <v>-64.400000000000006</v>
+        <v>-57.9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>54101</v>
       </c>
       <c r="C48">
-        <v>-56.9</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
         <v>54107</v>
       </c>
       <c r="C51">
-        <v>-65.099999999999994</v>
+        <v>-53.7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>24001</v>
       </c>
       <c r="C54">
-        <v>-67.8</v>
+        <v>-74.3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">

--- a/north-virginia-2024.xlsx
+++ b/north-virginia-2024.xlsx
@@ -594,7 +594,7 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>54003</v>
       </c>
       <c r="C3">
-        <v>-56.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>54023</v>
       </c>
       <c r="C12">
-        <v>-68.2</v>
+        <v>-56.4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>24023</v>
       </c>
       <c r="C53">
-        <v>-64.599999999999994</v>
+        <v>-57.4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">

--- a/north-virginia-2024.xlsx
+++ b/north-virginia-2024.xlsx
@@ -594,7 +594,7 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>54003</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>-64.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/north-virginia-2024.xlsx
+++ b/north-virginia-2024.xlsx
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
         <v>54003</v>
       </c>
       <c r="C3">
-        <v>-64.599999999999994</v>
+        <v>-54.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>54005</v>
       </c>
       <c r="C4">
-        <v>53.9</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>54011</v>
       </c>
       <c r="C6">
-        <v>64.7</v>
+        <v>-53.3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>54015</v>
       </c>
       <c r="C8">
-        <v>-53.8</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>54019</v>
       </c>
       <c r="C10">
-        <v>53.2</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>54021</v>
       </c>
       <c r="C11">
-        <v>-57.9</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>54023</v>
       </c>
       <c r="C12">
-        <v>-56.4</v>
+        <v>-54.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>54025</v>
       </c>
       <c r="C13">
-        <v>67.5</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>54027</v>
       </c>
       <c r="C14">
-        <v>-62.4</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>54031</v>
       </c>
       <c r="C15">
-        <v>-68.3</v>
+        <v>-57.6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>54033</v>
       </c>
       <c r="C16">
-        <v>-54.6</v>
+        <v>-54.4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>54041</v>
       </c>
       <c r="C20">
-        <v>-57.8</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>54043</v>
       </c>
       <c r="C21">
-        <v>54.4</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>54045</v>
       </c>
       <c r="C22">
-        <v>56.8</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,7 +852,7 @@
         <v>54047</v>
       </c>
       <c r="C23">
-        <v>53.7</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>54049</v>
       </c>
       <c r="C24">
-        <v>-54.9</v>
+        <v>-57.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>54053</v>
       </c>
       <c r="C25">
-        <v>61.4</v>
+        <v>-65.400000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>54057</v>
       </c>
       <c r="C27">
-        <v>-64.7</v>
+        <v>-57.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>54059</v>
       </c>
       <c r="C28">
-        <v>-54.6</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>54073</v>
       </c>
       <c r="C34">
-        <v>52.2</v>
+        <v>-56.3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>54075</v>
       </c>
       <c r="C35">
-        <v>54.7</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>54079</v>
       </c>
       <c r="C37">
-        <v>57.3</v>
+        <v>-54.1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>54085</v>
       </c>
       <c r="C40">
-        <v>-64.7</v>
+        <v>-57.6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>54087</v>
       </c>
       <c r="C41">
-        <v>-55.6</v>
+        <v>-55.3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>54089</v>
       </c>
       <c r="C42">
-        <v>53.2</v>
+        <v>-56.9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>54097</v>
       </c>
       <c r="C46">
-        <v>-56.4</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>54099</v>
       </c>
       <c r="C47">
-        <v>62.6</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>54101</v>
       </c>
       <c r="C48">
-        <v>52.7</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>54109</v>
       </c>
       <c r="C52">
-        <v>-58.9</v>
+        <v>64.099999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>24001</v>
       </c>
       <c r="C54">
-        <v>-74.3</v>
+        <v>-68.3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
